--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail3 Features.xlsx
@@ -5600,7 +5600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5611,29 +5611,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5654,115 +5652,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5779,72 +5767,66 @@
         <v>2.70178564586019e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1182635273519277</v>
+        <v>9.100836740789543e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.20394253298474</v>
+        <v>6.582184388964669e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.100836740789543e-07</v>
+        <v>-0.03454694660332841</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.582184388964669e-06</v>
+        <v>0.08369189350496416</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03454694660332841</v>
+        <v>0.008197464617066937</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.08369189350496416</v>
+        <v>1.936981533250899</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.008197464617066937</v>
+        <v>3.423294680500006</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.964331663288533</v>
+        <v>5.713655444164864</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.423294680500006</v>
+        <v>1.705784957495264e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.713655444164864</v>
+        <v>2830839395.231942</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.705784957495264e-16</v>
+        <v>4.246051420467336e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2830839395.231942</v>
+        <v>1366.956649307504</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.246051420467336e-08</v>
+        <v>0.0001259380452803346</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1366.956649307504</v>
+        <v>9.665702565749406</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001259380452803346</v>
+        <v>1.591632037884868</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.665702565749406</v>
+        <v>0.01176586339765558</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.591632037884868</v>
+        <v>4.960268216854011</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01176586339765558</v>
+        <v>0.9593758680060189</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.960268216854011</v>
+        <v>0.9588166559568119</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9593758680060189</v>
+        <v>360</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9588166559568119</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>5.396855124238289</v>
       </c>
     </row>
@@ -5859,72 +5841,66 @@
         <v>2.749441024130439e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.15149548721548</v>
+        <v>9.235629873489001e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.214410898964572</v>
+        <v>6.572556200458756e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.235629873489001e-07</v>
+        <v>-0.0361320278811329</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.572556200458756e-06</v>
+        <v>0.0808605780169051</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0361320278811329</v>
+        <v>0.007843442195381184</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.0808605780169051</v>
+        <v>1.933191530614731</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.007843442195381184</v>
+        <v>3.361331614915206</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.961107743694003</v>
+        <v>5.288876132362164</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.361331614915206</v>
+        <v>1.990790607277901e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.288876132362164</v>
+        <v>2441814016.50827</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.990790607277901e-16</v>
+        <v>4.930803651100919e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2441814016.50827</v>
+        <v>1187.000078638398</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.930803651100919e-08</v>
+        <v>0.0001235439699672062</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1187.000078638398</v>
+        <v>10.52154308640125</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001235439699672062</v>
+        <v>1.207261712364444</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.52154308640125</v>
+        <v>0.01367667191301223</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.207261712364444</v>
+        <v>4.290267059528559</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01367667191301223</v>
+        <v>0.9594697796031717</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.290267059528559</v>
+        <v>0.9262076191508714</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9594697796031717</v>
+        <v>304</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9262076191508714</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>304</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.568340632896461</v>
       </c>
     </row>
@@ -5939,72 +5915,66 @@
         <v>2.793851988638746e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.187878362171176</v>
+        <v>9.383128053142989e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.212488104559193</v>
+        <v>6.562282863197462e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.383128053142989e-07</v>
+        <v>-0.0380353054076471</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.562282863197462e-06</v>
+        <v>0.07773367586252748</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0380353054076471</v>
+        <v>0.007488446319998138</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.07773367586252748</v>
+        <v>1.928953361782274</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.007488446319998138</v>
+        <v>3.045412111778223</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.957319510085068</v>
+        <v>5.247377297476412</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.045412111778223</v>
+        <v>2.0224034179923e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.247377297476412</v>
+        <v>2394700199.750967</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.0224034179923e-16</v>
+        <v>5.017052743613947e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2394700199.750967</v>
+        <v>1159.765248880164</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.017052743613947e-08</v>
+        <v>0.0001293756862456906</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1159.765248880164</v>
+        <v>11.2725280926334</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001293756862456906</v>
+        <v>1.090155753449053</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.2725280926334</v>
+        <v>0.01643975416806184</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.090155753449053</v>
+        <v>3.871251448044366</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01643975416806184</v>
+        <v>0.9597164805632051</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.871251448044366</v>
+        <v>0.9525467256360539</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9597164805632051</v>
+        <v>263</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9525467256360539</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.899396434507818</v>
       </c>
     </row>
@@ -6019,72 +5989,66 @@
         <v>2.833593358258424e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2271148507898328</v>
+        <v>9.535950559568728e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.195832454750178</v>
+        <v>6.551247370235764e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.535950559568728e-07</v>
+        <v>-0.04047597172039451</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.551247370235764e-06</v>
+        <v>0.07369120329913913</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04047597172039451</v>
+        <v>0.007067392782475999</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07369120329913913</v>
+        <v>1.928051649112328</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.007067392782475999</v>
+        <v>3.266959044754957</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.957710749989906</v>
+        <v>5.236444321151035</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.266959044754957</v>
+        <v>2.030857234964549e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.236444321151035</v>
+        <v>2463070149.051808</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.030857234964549e-16</v>
+        <v>4.886208618577123e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2463070149.051808</v>
+        <v>1232.063115491474</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.886208618577123e-08</v>
+        <v>0.0001337063943767999</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1232.063115491474</v>
+        <v>10.84462037702724</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001337063943767999</v>
+        <v>1.123840698949403</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.84462037702724</v>
+        <v>0.01572464628873154</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.123840698949403</v>
+        <v>3.832914471503743</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01572464628873154</v>
+        <v>0.9594171704988973</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.832914471503743</v>
+        <v>0.9367876293419101</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9594171704988973</v>
+        <v>263</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9367876293419101</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.732501195849198</v>
       </c>
     </row>
@@ -6099,72 +6063,66 @@
         <v>2.866158173473275e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2685618131920288</v>
+        <v>9.691771008425855e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.161707331098165</v>
+        <v>6.539289556915759e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.691771008425855e-07</v>
+        <v>-0.0434614585593029</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.539289556915759e-06</v>
+        <v>0.06842272200870964</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0434614585593029</v>
+        <v>0.006568888831457115</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06842272200870964</v>
+        <v>1.925482876596008</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.006568888831457115</v>
+        <v>3.107265270224109</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.953649031138319</v>
+        <v>5.239765288527806</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.107265270224109</v>
+        <v>2.02828373292904e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.239765288527806</v>
+        <v>2460267374.650651</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.02828373292904e-16</v>
+        <v>4.880337907683183e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2460267374.650651</v>
+        <v>1227.703015653398</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.880337907683183e-08</v>
+        <v>0.0001421660978969479</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1227.703015653398</v>
+        <v>9.404090482629718</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001421660978969479</v>
+        <v>1.334715104289331</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.404090482629718</v>
+        <v>0.01257273151443918</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.334715104289331</v>
+        <v>3.954489517996846</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01257273151443918</v>
+        <v>0.9589411374419162</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.954489517996846</v>
+        <v>0.9183148441555028</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9589411374419162</v>
+        <v>266</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9183148441555028</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>266</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.745865875749848</v>
       </c>
     </row>
@@ -6179,72 +6137,66 @@
         <v>2.888430043019087e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3102115420191987</v>
+        <v>9.845543708436119e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.10946732214233</v>
+        <v>6.526286077141034e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.845543708436119e-07</v>
+        <v>-0.04698671842269493</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.526286077141034e-06</v>
+        <v>0.06145211206512226</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04698671842269493</v>
+        <v>0.005981594774762943</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06145211206512226</v>
+        <v>1.930904503503087</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.005981594774762943</v>
+        <v>3.091524359986828</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.956760102477666</v>
+        <v>5.212688491152692</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.091524359986828</v>
+        <v>2.049409900176642e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.212688491152692</v>
+        <v>2418560120.350059</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.049409900176642e-16</v>
+        <v>4.97990930484496e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2418560120.350059</v>
+        <v>1198.788601486983</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.97990930484496e-08</v>
+        <v>0.0001581752983956783</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1198.788601486983</v>
+        <v>9.07781390314223</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001581752983956783</v>
+        <v>1.566696449386494</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.07781390314223</v>
+        <v>0.01303470519431825</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.566696449386494</v>
+        <v>3.926407176107999</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01303470519431825</v>
+        <v>0.9609409713818761</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.926407176107999</v>
+        <v>0.9534631560898014</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9609409713818761</v>
+        <v>247</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9534631560898014</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>247</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.651823317233742</v>
       </c>
     </row>
@@ -6259,72 +6211,66 @@
         <v>2.895349060168332e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.347665246480216</v>
+        <v>9.994615554278574e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.042805799962953</v>
+        <v>6.512059579928925e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.994615554278574e-07</v>
+        <v>-0.0514802601722681</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.512059579928925e-06</v>
+        <v>0.0500369175323353</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0514802601722681</v>
+        <v>0.005150248851073061</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.0500369175323353</v>
+        <v>1.925719856805385</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.005150248851073061</v>
+        <v>3.251449704802903</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.951657403038321</v>
+        <v>5.180622425328737</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.251449704802903</v>
+        <v>2.074858538333126e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.180622425328737</v>
+        <v>2440760971.292165</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.074858538333126e-16</v>
+        <v>4.938837575542597e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>2440760971.292165</v>
+        <v>1236.058406530451</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.938837575542597e-08</v>
+        <v>0.0001432132086997641</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1236.058406530451</v>
+        <v>10.21445889476915</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001432132086997641</v>
+        <v>1.256169683399176</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.21445889476915</v>
+        <v>0.01494217454939352</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.256169683399176</v>
+        <v>3.846136274295995</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01494217454939352</v>
+        <v>0.9609391174183688</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.846136274295995</v>
+        <v>0.9625308279911178</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9609391174183688</v>
+        <v>235</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9625308279911178</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>235</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.469504183896196</v>
       </c>
     </row>
@@ -6339,72 +6285,66 @@
         <v>2.880345725790344e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3713953585593561</v>
+        <v>1.014021251091422e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9794877422963508</v>
+        <v>6.496445068067366e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.014021251091422e-06</v>
+        <v>-0.05652594853993584</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.496445068067366e-06</v>
+        <v>0.03351247864923571</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05652594853993584</v>
+        <v>0.004315875270309366</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.03351247864923571</v>
+        <v>1.925706807741717</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004315875270309366</v>
+        <v>3.101891624796785</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.951089380809096</v>
+        <v>5.179492158571046</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.101891624796785</v>
+        <v>2.07576418677863e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.179492158571046</v>
+        <v>2444841330.939278</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.07576418677863e-16</v>
+        <v>4.926007345264263e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2444841330.939278</v>
+        <v>1240.735968670842</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.926007345264263e-08</v>
+        <v>0.0001397457448323537</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1240.735968670842</v>
+        <v>11.56351723578121</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001397457448323537</v>
+        <v>1.072500446151496</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.56351723578121</v>
+        <v>0.0186860926085461</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.072500446151496</v>
+        <v>3.599854109774691</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0186860926085461</v>
+        <v>0.9601280556598648</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.599854109774691</v>
+        <v>0.9496805821755731</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9601280556598648</v>
+        <v>227</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9496805821755731</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>227</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.271758511805268</v>
       </c>
     </row>
@@ -6419,72 +6359,66 @@
         <v>2.842869140106231e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3718723106841358</v>
+        <v>1.028445877571287e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.9504841733859282</v>
+        <v>6.47967781170348e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.028445877571287e-06</v>
+        <v>-0.06019690186787395</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.47967781170348e-06</v>
+        <v>0.02351716420146117</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06019690186787395</v>
+        <v>0.004176925618479762</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.02351716420146117</v>
+        <v>1.924055281593701</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.004176925618479762</v>
+        <v>2.922998140540989</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.945949422373297</v>
+        <v>5.245212219881315</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.922998140540989</v>
+        <v>2.024073346239051e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.245212219881315</v>
+        <v>2357443050.436409</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.024073346239051e-16</v>
+        <v>5.106511682715286e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2357443050.436409</v>
+        <v>1124.886400225839</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.106511682715286e-08</v>
+        <v>0.000140986624918615</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1124.886400225839</v>
+        <v>11.02882176639346</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000140986624918615</v>
+        <v>1.107391554374655</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.02882176639346</v>
+        <v>0.01714889537042269</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.107391554374655</v>
+        <v>3.655305182630036</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01714889537042269</v>
+        <v>0.9595063125502056</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.655305182630036</v>
+        <v>0.9554896906803926</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9595063125502056</v>
+        <v>253</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9554896906803926</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>253</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>2.177349118010391</v>
       </c>
     </row>
@@ -6499,72 +6433,66 @@
         <v>2.793837866279885e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3538604715499121</v>
+        <v>1.034434775889727e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9588008770552596</v>
+        <v>6.462454302552197e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.034434775889727e-06</v>
+        <v>-0.06170971618045916</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.462454302552197e-06</v>
+        <v>0.02306175349438049</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06170971618045916</v>
+        <v>0.004339859949835653</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.02306175349438049</v>
+        <v>1.923676794340635</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.004339859949835653</v>
+        <v>2.868576987646482</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.952048635614678</v>
+        <v>5.37843989524955</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.868576987646482</v>
+        <v>1.925039898804555e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.37843989524955</v>
+        <v>2470240796.698385</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.925039898804555e-16</v>
+        <v>4.871060362904365e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>2470240796.698385</v>
+        <v>1174.676593390074</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.871060362904365e-08</v>
+        <v>0.0001413158794195349</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1174.676593390074</v>
+        <v>9.681650495564398</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001413158794195349</v>
+        <v>1.272458171082119</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.681650495564398</v>
+        <v>0.01324615299493928</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.272458171082119</v>
+        <v>3.912074639895707</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01324615299493928</v>
+        <v>0.9591969552689547</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.912074639895707</v>
+        <v>0.9801435715332103</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9591969552689547</v>
+        <v>296</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9801435715332103</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>296</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>2.48602323463677</v>
       </c>
     </row>
@@ -6579,72 +6507,66 @@
         <v>2.744197014998673e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3289740458816884</v>
+        <v>1.019055671762122e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9819359767496327</v>
+        <v>6.445322976911539e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.019055671762122e-06</v>
+        <v>-0.06189527904344572</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.445322976911539e-06</v>
+        <v>0.02266811150677462</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06189527904344572</v>
+        <v>0.004344111337811788</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.02266811150677462</v>
+        <v>1.923940358697602</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004344111337811788</v>
+        <v>2.60587158332516</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.949342228343223</v>
+        <v>5.356934908597656</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.60587158332516</v>
+        <v>1.736713724456223e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.356934908597656</v>
+        <v>2625553183.624263</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.736713724456223e-16</v>
+        <v>4.519500578370878e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2625553183.624263</v>
+        <v>1197.208732739672</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.519500578370878e-08</v>
+        <v>0.0001406778339292483</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1197.208732739672</v>
+        <v>8.8822079472071</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001406778339292483</v>
+        <v>1.520772044666879</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.8822079472071</v>
+        <v>0.01109858329353342</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.520772044666879</v>
+        <v>4.284358177372367</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01109858329353342</v>
+        <v>0.9593255488257934</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.284358177372367</v>
+        <v>0.9712897893300035</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9593255488257934</v>
+        <v>347</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9712897893300035</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>347</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>3.362039615937132</v>
       </c>
     </row>
@@ -6659,72 +6581,66 @@
         <v>2.699220194140844e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.30476442006577</v>
+        <v>9.96353590786586e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.002678632418964</v>
+        <v>6.428524825742298e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.96353590786586e-07</v>
+        <v>-0.06152546765010832</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.428524825742298e-06</v>
+        <v>0.02096465317819042</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06152546765010832</v>
+        <v>0.004223970583070569</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.02096465317819042</v>
+        <v>1.922851681225014</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.004223970583070569</v>
+        <v>2.894649274941469</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.947726962757052</v>
+        <v>5.567955543997616</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.894649274941469</v>
+        <v>1.529828691227953e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.567955543997616</v>
+        <v>2960010633.898606</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.529828691227953e-16</v>
+        <v>4.045407671562607e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2960010633.898606</v>
+        <v>1340.38433680515</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.045407671562607e-08</v>
+        <v>0.0001153567420920897</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1340.38433680515</v>
+        <v>9.776339205244645</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001153567420920897</v>
+        <v>1.360796913298345</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.776339205244645</v>
+        <v>0.0110254292199729</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.360796913298345</v>
+        <v>4.934180940082442</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0110254292199729</v>
+        <v>0.9595600072271596</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.934180940082442</v>
+        <v>0.9471772697325017</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9595600072271596</v>
+        <v>391</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9471772697325017</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>391</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>5.167858510889356</v>
       </c>
     </row>
@@ -6739,72 +6655,66 @@
         <v>2.660024753995529e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2837990782243109</v>
+        <v>9.742685332521501e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.015402577467271</v>
+        <v>6.412106795890138e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.742685332521501e-07</v>
+        <v>-0.06104756851981629</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.412106795890138e-06</v>
+        <v>0.01906478522397464</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06104756851981629</v>
+        <v>0.004089514603480914</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01906478522397464</v>
+        <v>1.919852310387461</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004089514603480914</v>
+        <v>2.804905352286287</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.944215621224065</v>
+        <v>6.100688414343272</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.804905352286287</v>
+        <v>1.274314517859761e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.100688414343272</v>
+        <v>3540482153.513867</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.274314517859761e-16</v>
+        <v>3.375009954854528e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>3540482153.513867</v>
+        <v>1597.355016802955</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.375009954854528e-08</v>
+        <v>8.90399088282151e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1597.355016802955</v>
+        <v>13.13371500518679</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>8.90399088282151e-05</v>
+        <v>1.011878847341117</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.13371500518679</v>
+        <v>0.01535889186769951</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.011878847341117</v>
+        <v>5.494199897261774</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01535889186769951</v>
+        <v>0.9599270511051067</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.494199897261774</v>
+        <v>0.98001978162839</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9599270511051067</v>
+        <v>409</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.98001978162839</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>409</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>7.516214022746701</v>
       </c>
     </row>
@@ -6819,72 +6729,66 @@
         <v>2.625799358071229e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2659817928266271</v>
+        <v>9.551883192085178e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.020932173462946</v>
+        <v>6.396031503074131e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.551883192085178e-07</v>
+        <v>-0.06063148706325121</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.396031503074131e-06</v>
+        <v>0.01759693005374586</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06063148706325121</v>
+        <v>0.003985233461162987</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.01759693005374586</v>
+        <v>1.922502432255339</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003985233461162987</v>
+        <v>2.989722611490315</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.950480248163757</v>
+        <v>6.172712495840333</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.989722611490315</v>
+        <v>1.244750246408509e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.172712495840333</v>
+        <v>3662242958.936295</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.244750246408509e-16</v>
+        <v>3.270327685148086e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>3662242958.936295</v>
+        <v>1669.461954436083</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.270327685148086e-08</v>
+        <v>8.57473976654853e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1669.461954436083</v>
+        <v>13.18343788942219</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>8.57473976654853e-05</v>
+        <v>1.066890418108645</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.18343788942219</v>
+        <v>0.01490315792196401</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.066890418108645</v>
+        <v>5.865817271637948</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01490315792196401</v>
+        <v>0.9608286210773594</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>5.865817271637948</v>
+        <v>0.7892273538732175</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9608286210773594</v>
+        <v>422</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.7892273538732175</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>422</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>8.476345481612618</v>
       </c>
     </row>
@@ -6899,72 +6803,66 @@
         <v>2.595548350998679e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2507679056496538</v>
+        <v>9.38769342289799e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.021013810468539</v>
+        <v>6.380253070250561e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.38769342289799e-07</v>
+        <v>-0.06028308846697714</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.380253070250561e-06</v>
+        <v>0.01647515508409256</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06028308846697714</v>
+        <v>0.003905052858257704</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.01647515508409256</v>
+        <v>1.91863189094309</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003905052858257704</v>
+        <v>2.999691319960388</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.952233617034711</v>
+        <v>6.825356021270851</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.999691319960388</v>
+        <v>1.018084206436158e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6.825356021270851</v>
+        <v>4670768302.922953</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.018084206436158e-16</v>
+        <v>2.565172381681226e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>4670768302.922953</v>
+        <v>2221.060297135872</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.565172381681226e-08</v>
+        <v>7.095173721644207e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2221.060297135872</v>
+        <v>11.13380934867049</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>7.095173721644207e-05</v>
+        <v>1.330187694205994</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.13380934867049</v>
+        <v>0.008795298716281739</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.330187694205994</v>
+        <v>6.448281462280592</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.008795298716281739</v>
+        <v>0.9621462925086199</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>6.448281462280592</v>
+        <v>0.7887262380748979</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9621462925086199</v>
+        <v>469</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7887262380748979</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>469</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>9.786866744978333</v>
       </c>
     </row>
@@ -6979,72 +6877,66 @@
         <v>2.568198531208017e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2371668209127119</v>
+        <v>9.267335342114243e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.017913225849803</v>
+        <v>6.364714454521048e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.267335342114243e-07</v>
+        <v>-0.06014267057488588</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.364714454521048e-06</v>
+        <v>0.01598798677499529</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06014267057488588</v>
+        <v>0.00387257661649553</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.01598798677499529</v>
+        <v>1.916275905170044</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.00387257661649553</v>
+        <v>2.709298290678921</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.946515602406826</v>
+        <v>8.471890918890399</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.709298290678921</v>
+        <v>6.063021546587213e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.471890918890399</v>
+        <v>7751995536.434517</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.063021546587213e-17</v>
+        <v>1.543467516813513e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>7751995536.434517</v>
+        <v>3643.477899820426</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.543467516813513e-08</v>
+        <v>3.344700120060409e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3643.477899820426</v>
+        <v>9.417723727997963</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.344700120060409e-05</v>
+        <v>1.472147292028857</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.417723727997963</v>
+        <v>0.002966532277180319</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.472147292028857</v>
+        <v>7.448822226438537</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.002966532277180319</v>
+        <v>0.9622573438138744</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>7.448822226438537</v>
+        <v>0.7991554007851007</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9622573438138744</v>
+        <v>495</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7991554007851007</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>495</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>12.89327137670716</v>
       </c>
     </row>
@@ -7059,72 +6951,66 @@
         <v>2.542108887984021e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.2232125667114077</v>
+        <v>9.198043147119984e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.015889007890678</v>
+        <v>6.349333452308874e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.198043147119984e-07</v>
+        <v>-0.0603042354225093</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.349333452308874e-06</v>
+        <v>0.01605318708122081</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0603042354225093</v>
+        <v>0.00389433195365098</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.01605318708122081</v>
+        <v>1.920838751227431</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.00389433195365098</v>
+        <v>3.43223187214725</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.950970773477901</v>
+        <v>9.889792912106746</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.43223187214725</v>
+        <v>3.375134810416611e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>9.889792912106746</v>
+        <v>14027151096.64813</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.375134810416611e-17</v>
+        <v>8.567460787861152e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>14027151096.64813</v>
+        <v>6640.947920507178</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>8.567460787861152e-09</v>
+        <v>9.911071838687948e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>6640.947920507178</v>
+        <v>8.321175631503007</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>9.911071838687948e-06</v>
+        <v>1.44584285806674</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.321175631503007</v>
+        <v>0.0006862620783687929</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.44584285806674</v>
+        <v>8.323548430111783</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0006862620783687929</v>
+        <v>0.9628274560496638</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.323548430111783</v>
+        <v>0.7347877496930351</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9628274560496638</v>
+        <v>534</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.7347877496930351</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>534</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>16.7507942230432</v>
       </c>
     </row>
@@ -7139,72 +7025,66 @@
         <v>2.515556638230746e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2065620934215575</v>
+        <v>9.168597324626101e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.020280595711617</v>
+        <v>6.33403059253224e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.168597324626101e-07</v>
+        <v>-0.06074492706691766</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.33403059253224e-06</v>
+        <v>0.01629574090941902</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06074492706691766</v>
+        <v>0.003955612709572261</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.01629574090941902</v>
+        <v>1.921755373136804</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003955612709572261</v>
+        <v>3.832723917998222</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.949899949957774</v>
+        <v>10.43749697794399</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.832723917998222</v>
+        <v>3.030210468524411e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>10.43749697794399</v>
+        <v>16045264981.18027</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.030210468524411e-17</v>
+        <v>7.490652270476265e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>16045264981.18027</v>
+        <v>7801.292860311624</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.490652270476265e-09</v>
+        <v>5.057129404066791e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>7801.292860311624</v>
+        <v>8.06334821081578</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>5.057129404066791e-06</v>
+        <v>1.668580007323627</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.06334821081578</v>
+        <v>0.0003288023376931858</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.668580007323627</v>
+        <v>8.654643615101627</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0003288023376931858</v>
+        <v>0.9633765265255669</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.654643615101627</v>
+        <v>0.7112767669826936</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9633765265255669</v>
+        <v>543</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.7112767669826936</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>543</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>18.86553706376667</v>
       </c>
     </row>
@@ -7219,72 +7099,66 @@
         <v>2.487771317811077e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.1861602144881973</v>
+        <v>9.112087943051531e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.034698445780459</v>
+        <v>6.318787467560986e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.112087943051531e-07</v>
+        <v>-0.06104582878858138</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.318787467560986e-06</v>
+        <v>0.0165700760095726</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06104582878858138</v>
+        <v>0.004001118901681784</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.0165700760095726</v>
+        <v>1.920904726643902</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004001118901681784</v>
+        <v>3.463961849330363</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.949268591118217</v>
+        <v>9.62289686297412</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.463961849330363</v>
+        <v>3.361601879370192e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>9.62289686297412</v>
+        <v>13973319212.48186</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.361601879370192e-17</v>
+        <v>8.595065183218985e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>13973319212.48186</v>
+        <v>6563.650361683443</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>8.595065183218985e-09</v>
+        <v>4.985264573923755e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>6563.650361683443</v>
+        <v>7.60581482098117</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>4.985264573923755e-06</v>
+        <v>1.66146742043902</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.60581482098117</v>
+        <v>0.0002883896743521402</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.66146742043902</v>
+        <v>8.718176109158074</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0002883896743521402</v>
+        <v>0.9640073661830832</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.718176109158074</v>
+        <v>0.7384248648459554</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9640073661830832</v>
+        <v>509</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.7384248648459554</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>509</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>18.77163902359825</v>
       </c>
     </row>
@@ -7299,72 +7173,66 @@
         <v>2.459889926732343e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1644333621796534</v>
+        <v>8.987265132696312e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.056425993468746</v>
+        <v>6.303696229728711e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8.987265132696312e-07</v>
+        <v>-0.06089303507313031</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.303696229728711e-06</v>
+        <v>0.01653976359739432</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06089303507313031</v>
+        <v>0.00398127251231489</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01653976359739432</v>
+        <v>1.925637743656662</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.00398127251231489</v>
+        <v>3.657594801561257</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.953147437070977</v>
+        <v>9.032056813704507</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.657594801561257</v>
+        <v>3.815791344953858e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>9.032056813704507</v>
+        <v>12411978807.34867</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.815791344953858e-17</v>
+        <v>9.684923239033033e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>12411978807.34867</v>
+        <v>5878.501987441886</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.684923239033033e-09</v>
+        <v>1.034663093614991e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>5878.501987441886</v>
+        <v>9.371823142175275</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>1.034663093614991e-05</v>
+        <v>1.407574917978638</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.371823142175275</v>
+        <v>0.0009087556557554847</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.407574917978638</v>
+        <v>8.410125526219147</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0009087556557554847</v>
+        <v>0.9651220992363564</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.410125526219147</v>
+        <v>0.7335497045055045</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9651220992363564</v>
+        <v>468</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.7335497045055045</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>468</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>17.14568414800232</v>
       </c>
     </row>
@@ -7379,72 +7247,66 @@
         <v>2.433201238199133e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1445882552155094</v>
+        <v>8.815419556898903e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.080729509634832</v>
+        <v>6.288855891119774e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.815419556898903e-07</v>
+        <v>-0.06038410036983016</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.288855891119774e-06</v>
+        <v>0.01607042344949219</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06038410036983016</v>
+        <v>0.00390414374047121</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.01607042344949219</v>
+        <v>1.918561058873328</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.00390414374047121</v>
+        <v>3.734009162061386</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.949850398495039</v>
+        <v>8.243906401068411</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.734009162061386</v>
+        <v>4.549476149604868e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>8.243906401068411</v>
+        <v>10252042146.90867</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.549476149604868e-17</v>
+        <v>1.169346545992507e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>10252042146.90867</v>
+        <v>4781.698162632599</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.169346545992507e-08</v>
+        <v>2.056124333003837e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>4781.698162632599</v>
+        <v>11.04898348251936</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>2.056124333003837e-05</v>
+        <v>1.184796489173852</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.04898348251936</v>
+        <v>0.002510117325873864</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.184796489173852</v>
+        <v>7.877694674787545</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.002510117325873864</v>
+        <v>0.9627188461215986</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>7.877694674787545</v>
+        <v>0.7244720038970346</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9627188461215986</v>
+        <v>439</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7244720038970346</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>439</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>15.33390944602258</v>
       </c>
     </row>
@@ -7459,72 +7321,66 @@
         <v>2.408100057355942e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1287881572766162</v>
+        <v>8.616215568729871e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.104729611475817</v>
+        <v>6.274326384681422e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.616215568729871e-07</v>
+        <v>-0.0596343573398054</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.274326384681422e-06</v>
+        <v>0.01554099835506636</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0596343573398054</v>
+        <v>0.003797431292895565</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.01554099835506636</v>
+        <v>1.920150617060886</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003797431292895565</v>
+        <v>3.425268325924778</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.954549830736595</v>
+        <v>7.540397981185352</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.425268325924778</v>
+        <v>6.564833597544374e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7.540397981185352</v>
+        <v>6883355583.798138</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>6.564833597544374e-17</v>
+        <v>1.738311972343466e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>6883355583.798138</v>
+        <v>3110.456503250357</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.738311972343466e-08</v>
+        <v>3.107144728926835e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3110.456503250357</v>
+        <v>11.54218284212769</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>3.107144728926835e-05</v>
+        <v>1.130471119248871</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.54218284212769</v>
+        <v>0.004139399877276438</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.130471119248871</v>
+        <v>7.420258025205886</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.004139399877276438</v>
+        <v>0.9610309504097398</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>7.420258025205886</v>
+        <v>0.7393782315701429</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9610309504097398</v>
+        <v>407</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.7393782315701429</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>407</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>13.72706361071808</v>
       </c>
     </row>
@@ -7539,72 +7395,66 @@
         <v>2.384163672676802e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.118364968300263</v>
+        <v>8.394811956785207e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.127465208039764</v>
+        <v>6.260147560950935e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8.394811956785207e-07</v>
+        <v>-0.05868438541401193</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.260147560950935e-06</v>
+        <v>0.0154373049275913</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05868438541401193</v>
+        <v>0.003681876992469539</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.0154373049275913</v>
+        <v>1.921093055125636</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003681876992469539</v>
+        <v>2.951904946711305</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.953720818494838</v>
+        <v>7.376741039190213</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.951904946711305</v>
+        <v>1.05824074393292e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>7.376741039190213</v>
+        <v>4329238155.536236</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.05824074393292e-16</v>
+        <v>2.761901593872054e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>4329238155.536236</v>
+        <v>1983.38686775151</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.761901593872054e-08</v>
+        <v>3.401327962204943e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1983.38686775151</v>
+        <v>12.46763224756667</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>3.401327962204943e-05</v>
+        <v>1.100923671814792</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.46763224756667</v>
+        <v>0.005287087240329114</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.100923671814792</v>
+        <v>7.296641786864355</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.005287087240329114</v>
+        <v>0.962514540905168</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>7.296641786864355</v>
+        <v>0.7505210861673246</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.962514540905168</v>
+        <v>377</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.7505210861673246</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>377</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>13.1687936448113</v>
       </c>
     </row>
@@ -7981,7 +7831,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.674015187190317</v>
+        <v>1.705953455044933</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.549193314718514</v>
@@ -8070,7 +7920,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.682553283802076</v>
+        <v>1.714619057791214</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.614329153408065</v>
@@ -8159,7 +8009,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.729099018809296</v>
+        <v>1.757104729451622</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.601959908378368</v>
@@ -8248,7 +8098,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.756119982893389</v>
+        <v>1.772013391714662</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.464348566956411</v>
@@ -8337,7 +8187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.755612597911125</v>
+        <v>1.777491311532885</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.652213809745834</v>
@@ -8426,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.756657960151567</v>
+        <v>1.778168753386021</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.502013623618761</v>
@@ -8515,7 +8365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.759731325310258</v>
+        <v>1.784798490479015</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.356926140728484</v>
@@ -8604,7 +8454,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.788068042760313</v>
+        <v>1.809818281302337</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.591605827550031</v>
@@ -8693,7 +8543,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.794826400035015</v>
+        <v>1.818552733813962</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.579986076572415</v>
@@ -8782,7 +8632,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.796920267405038</v>
+        <v>1.820138108121254</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.509929537437714</v>
@@ -8871,7 +8721,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.835631827304457</v>
+        <v>1.851140117916806</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.525647650727912</v>
@@ -8960,7 +8810,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.832767160180293</v>
+        <v>1.848338136721734</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.538305628471585</v>
@@ -9049,7 +8899,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.80198910308007</v>
+        <v>1.816281118048149</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.536130362283892</v>
@@ -9138,7 +8988,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.799874092777423</v>
+        <v>1.811874334784556</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.580595396675049</v>
@@ -9227,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.84843476949436</v>
+        <v>1.852351444513209</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.503464409733759</v>
@@ -9316,7 +9166,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.847614223352266</v>
+        <v>1.849287738001712</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.594473295829883</v>
@@ -9405,7 +9255,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.843102338846382</v>
+        <v>1.847235351031979</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.682276572792743</v>
@@ -9494,7 +9344,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.845509214662475</v>
+        <v>1.846754862998276</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.708655009361285</v>
@@ -9583,7 +9433,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.878738974575108</v>
+        <v>1.871827656476047</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.471585794565979</v>
@@ -9672,7 +9522,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.87811447273454</v>
+        <v>1.863228245298362</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.607996267630257</v>
@@ -9761,7 +9611,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.87047533586459</v>
+        <v>1.85220793775891</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.626009139190653</v>
@@ -9850,7 +9700,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.873145800563861</v>
+        <v>1.85558342891472</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.580480688607547</v>
@@ -9939,7 +9789,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.8755507994596</v>
+        <v>1.855538135147983</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.665149006857222</v>
@@ -10028,7 +9878,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.870150031348946</v>
+        <v>1.844599518678564</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.5960893213043</v>
@@ -10117,7 +9967,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.866464804027532</v>
+        <v>1.840234072925713</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.679450929553509</v>
@@ -10206,7 +10056,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.868410136919352</v>
+        <v>1.842922512795391</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.604580354597509</v>
@@ -10295,7 +10145,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.868109897268263</v>
+        <v>1.843203779278174</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.6219771232337</v>
@@ -10384,7 +10234,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.910517186423557</v>
+        <v>1.879944472056029</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.995292434674461</v>
@@ -10473,7 +10323,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.91358558177095</v>
+        <v>1.889711107163074</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.899065813052649</v>
@@ -10562,7 +10412,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.91945616085772</v>
+        <v>1.901353045619117</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.078668330447141</v>
@@ -10651,7 +10501,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.921211847501014</v>
+        <v>1.900085046895923</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.931261658742596</v>
@@ -10740,7 +10590,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.873323060742164</v>
+        <v>1.861254350746292</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.7965362258321</v>
@@ -10829,7 +10679,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.868588363450781</v>
+        <v>1.862588248158499</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.754185116837776</v>
@@ -10918,7 +10768,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.867209495710255</v>
+        <v>1.869378215748697</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.743368078087243</v>
@@ -11007,7 +10857,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.867321427024514</v>
+        <v>1.875453880360515</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.790731641418488</v>
@@ -11096,7 +10946,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.868683151378616</v>
+        <v>1.8776468196908</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.66938891568323</v>
@@ -11185,7 +11035,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.862399405021529</v>
+        <v>1.871854390881083</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.754089649893223</v>
@@ -11274,7 +11124,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.866192578579832</v>
+        <v>1.871995723479901</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.777167264307194</v>
@@ -11363,7 +11213,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.867206666307692</v>
+        <v>1.879148403830685</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.659936355981891</v>
@@ -11452,7 +11302,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.866346158138823</v>
+        <v>1.883315498588497</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.732407345392995</v>
@@ -11541,7 +11391,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.84373716963097</v>
+        <v>1.854928233183367</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.914237770303739</v>
@@ -11630,7 +11480,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.8234356606367</v>
+        <v>1.841040805904389</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.634417992182028</v>
@@ -11719,7 +11569,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.823965533706602</v>
+        <v>1.8394478288293</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.734701454755312</v>
@@ -11808,7 +11658,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.82121723796274</v>
+        <v>1.831468795968523</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.668974866946403</v>
@@ -11897,7 +11747,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.815256024674118</v>
+        <v>1.825005048229292</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.725857733959153</v>
@@ -11986,7 +11836,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.823076565233835</v>
+        <v>1.828938439844159</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.489071707538665</v>
@@ -12075,7 +11925,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.862656919417128</v>
+        <v>1.860481228947113</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.884832550402484</v>
@@ -12164,7 +12014,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.862324978861099</v>
+        <v>1.856700672842</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.793295476345553</v>
@@ -12253,7 +12103,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.860367783602935</v>
+        <v>1.8508941628698</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.827225823461646</v>
@@ -12342,7 +12192,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.858005514246255</v>
+        <v>1.843672822443333</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.777026507747533</v>
@@ -12431,7 +12281,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.862195078168126</v>
+        <v>1.848412189771226</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.745985532696024</v>
@@ -12520,7 +12370,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.867608548901935</v>
+        <v>1.850507178992064</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.921408180964029</v>
@@ -12609,7 +12459,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.862896526799947</v>
+        <v>1.845448012939987</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.8771660413376</v>
@@ -12698,7 +12548,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.864461816362309</v>
+        <v>1.843126134155084</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.996168891977089</v>
@@ -12787,7 +12637,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.863903158788223</v>
+        <v>1.8374854617293</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.837812257039752</v>
@@ -12876,7 +12726,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.91155598534127</v>
+        <v>1.874976264945083</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.184009282471619</v>
@@ -12965,7 +12815,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.917301755472117</v>
+        <v>1.882855646367744</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.880524059912326</v>
@@ -13054,7 +12904,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.917388571042144</v>
+        <v>1.882053333501353</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.896770399609108</v>
@@ -13143,7 +12993,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.918168035913556</v>
+        <v>1.884362281430038</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.422137094187636</v>
@@ -13232,7 +13082,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.920776207732541</v>
+        <v>1.883054381685526</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.682568710666995</v>
@@ -13321,7 +13171,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.92198188451336</v>
+        <v>1.886520692336509</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.3962789642328</v>
@@ -13410,7 +13260,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.92113664019839</v>
+        <v>1.885435989505005</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.199873363975845</v>
@@ -13499,7 +13349,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.919812972273428</v>
+        <v>1.878110353932752</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.274750307395105</v>
@@ -13588,7 +13438,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.922916611445027</v>
+        <v>1.878539867667431</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.437713465847894</v>
@@ -13677,7 +13527,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.921922334961823</v>
+        <v>1.884635909935757</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.828503021071708</v>
@@ -13766,7 +13616,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.924777844256664</v>
+        <v>1.886434000917087</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.117135959654437</v>
@@ -13855,7 +13705,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.883633590715123</v>
+        <v>1.852069570269184</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.769086845462341</v>
@@ -13944,7 +13794,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.884557561994284</v>
+        <v>1.857419395220387</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.78194011949836</v>
@@ -14230,7 +14080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.724159500752867</v>
+        <v>1.738075543271474</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.284135227364271</v>
@@ -14319,7 +14169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.76232199081784</v>
+        <v>1.778735944245065</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.978363857732954</v>
@@ -14408,7 +14258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.804960022455198</v>
+        <v>1.815064265125296</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.668209078927887</v>
@@ -14497,7 +14347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.809545594088304</v>
+        <v>1.820597718026052</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.663171528125697</v>
@@ -14586,7 +14436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.815426497176697</v>
+        <v>1.827630310746032</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.660723976767889</v>
@@ -14675,7 +14525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.829487998708138</v>
+        <v>1.839385425063595</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.989454428976728</v>
@@ -14764,7 +14614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.844188975356181</v>
+        <v>1.84934060529706</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.080249343484448</v>
@@ -14853,7 +14703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.868404037056151</v>
+        <v>1.869941293593447</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.564154564277729</v>
@@ -14942,7 +14792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.86397498031365</v>
+        <v>1.865688095603479</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.63543993891174</v>
@@ -15031,7 +14881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.865844723300841</v>
+        <v>1.867990422663875</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.912789814337376</v>
@@ -15120,7 +14970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.864246000846281</v>
+        <v>1.867352367464592</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.684773828967506</v>
@@ -15209,7 +15059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.870740051044085</v>
+        <v>1.871420060785439</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.726353301866449</v>
@@ -15298,7 +15148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.861477701778907</v>
+        <v>1.860749780181361</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.670131456009088</v>
@@ -15387,7 +15237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.859601148521163</v>
+        <v>1.86137986508434</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.595300675356891</v>
@@ -15476,7 +15326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.860210497321043</v>
+        <v>1.859706061617355</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.63819389639366</v>
@@ -15565,7 +15415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.850240645950166</v>
+        <v>1.853514382825849</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.547221988709292</v>
@@ -15654,7 +15504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.821564519936432</v>
+        <v>1.822619241205212</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.439284812202932</v>
@@ -15743,7 +15593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.796853721008</v>
+        <v>1.792714819531005</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.782936230626145</v>
@@ -15832,7 +15682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.798756393768548</v>
+        <v>1.791446172631926</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.890811903274043</v>
@@ -15921,7 +15771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.780311085716278</v>
+        <v>1.775825139476856</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.087495810472697</v>
@@ -16010,7 +15860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.777020908889577</v>
+        <v>1.771171412907484</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.657256174340991</v>
@@ -16099,7 +15949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.773273473322646</v>
+        <v>1.768688970032261</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.851011905523015</v>
@@ -16188,7 +16038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.762695337988008</v>
+        <v>1.749460488748304</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.335119997859623</v>
@@ -16277,7 +16127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.759756510125787</v>
+        <v>1.74177525939221</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.662348419363439</v>
@@ -16366,7 +16216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.749069170739082</v>
+        <v>1.736179633720626</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.371150195211792</v>
@@ -16455,7 +16305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.74913199382871</v>
+        <v>1.735811030371395</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.390408277485611</v>
@@ -16544,7 +16394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.745421427245268</v>
+        <v>1.735257356945947</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.71379115254613</v>
@@ -16633,7 +16483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.744638211626743</v>
+        <v>1.732671560227332</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.715257206435395</v>
@@ -16722,7 +16572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.743051513101478</v>
+        <v>1.729017210080148</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.670745933714977</v>
@@ -16811,7 +16661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.735145762626557</v>
+        <v>1.718246664877815</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.503852652497243</v>
@@ -16900,7 +16750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.741888786969136</v>
+        <v>1.722251620600398</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.103286070510325</v>
@@ -16989,7 +16839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.72081802838833</v>
+        <v>1.709760475445551</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.188604734580673</v>
@@ -17078,7 +16928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.701694685463688</v>
+        <v>1.691788376837254</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.21862526992365</v>
@@ -17167,7 +17017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.716994571174999</v>
+        <v>1.708749707507079</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.283498780518409</v>
@@ -17256,7 +17106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.711016771192676</v>
+        <v>1.704332496740855</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.124869209598454</v>
@@ -17345,7 +17195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.691784947166568</v>
+        <v>1.693050812105598</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.219858032324191</v>
@@ -17434,7 +17284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.685525605346335</v>
+        <v>1.684776529393127</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.027258210427309</v>
@@ -17523,7 +17373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.684353345839493</v>
+        <v>1.689474960686665</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.312075820629727</v>
@@ -17612,7 +17462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.689880223280543</v>
+        <v>1.69566526477308</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.794387303520913</v>
@@ -17701,7 +17551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.683647261165505</v>
+        <v>1.690042836314232</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.795872911512148</v>
@@ -17790,7 +17640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.67178201701652</v>
+        <v>1.676489792676734</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.231043558505939</v>
@@ -17879,7 +17729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.661747255804662</v>
+        <v>1.666972074486147</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.250644756427511</v>
@@ -17968,7 +17818,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.664042083845014</v>
+        <v>1.668778277743063</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.996827023703443</v>
@@ -18057,7 +17907,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.666702276579165</v>
+        <v>1.674024001079405</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.858597159493273</v>
@@ -18146,7 +17996,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.673202915661485</v>
+        <v>1.680377519174979</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.204285825965489</v>
@@ -18235,7 +18085,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.673269400543941</v>
+        <v>1.681699714023893</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.087585962866437</v>
@@ -18324,7 +18174,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.68346831566072</v>
+        <v>1.685011419497119</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.769715735661678</v>
@@ -18413,7 +18263,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.695978129588494</v>
+        <v>1.698211207778784</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.150169833453138</v>
@@ -18502,7 +18352,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.687286127252724</v>
+        <v>1.686628943558136</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.243793494096115</v>
@@ -18591,7 +18441,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.699842202301724</v>
+        <v>1.694140971873947</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.006681892104309</v>
@@ -18680,7 +18530,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.701491414655295</v>
+        <v>1.690928818757024</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.643601244377576</v>
@@ -18769,7 +18619,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.699000418898599</v>
+        <v>1.685785632875059</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.399819588205876</v>
@@ -18858,7 +18708,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.702419254063942</v>
+        <v>1.692122800367817</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.289359870042127</v>
@@ -18947,7 +18797,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.701581261034161</v>
+        <v>1.693831631109486</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.134770154550355</v>
@@ -19036,7 +18886,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.707875836045837</v>
+        <v>1.699084961387404</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.32830306258833</v>
@@ -19125,7 +18975,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.722637986931282</v>
+        <v>1.711048324726591</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.469410855879222</v>
@@ -19214,7 +19064,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.730635414758574</v>
+        <v>1.717998823898511</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.407999872569717</v>
@@ -19303,7 +19153,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.718400579346251</v>
+        <v>1.709763923547455</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.198677269217844</v>
@@ -19392,7 +19242,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.708120397752714</v>
+        <v>1.699396260845317</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.546591132607688</v>
@@ -19481,7 +19331,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.713446591168146</v>
+        <v>1.709386150585792</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.410111353379297</v>
@@ -19570,7 +19420,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.710609803840996</v>
+        <v>1.702524541324828</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.114816307432789</v>
@@ -19659,7 +19509,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.712199168227678</v>
+        <v>1.703951968866937</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.51721635972245</v>
@@ -19748,7 +19598,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.695700008858867</v>
+        <v>1.69465735879497</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.111461783978449</v>
@@ -19837,7 +19687,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.684514450783963</v>
+        <v>1.685285992209964</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.355676047500675</v>
@@ -19926,7 +19776,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.674263087333742</v>
+        <v>1.675568211093744</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.294359242913753</v>
@@ -20015,7 +19865,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.687330497173321</v>
+        <v>1.688952647637959</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.044613486826507</v>
@@ -20104,7 +19954,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.67941983259039</v>
+        <v>1.687911525870163</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.903626716283571</v>
@@ -20193,7 +20043,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.677311860168502</v>
+        <v>1.679431762835706</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.310891822703868</v>
@@ -20479,7 +20329,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.668024614144874</v>
+        <v>1.683212761303686</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.923347438532351</v>
@@ -20568,7 +20418,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.68125349839797</v>
+        <v>1.696906365503122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.143943730460707</v>
@@ -20657,7 +20507,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.712468036103709</v>
+        <v>1.72940853810038</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.893516557093743</v>
@@ -20746,7 +20596,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.717919702238979</v>
+        <v>1.73190885711657</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.928342438572877</v>
@@ -20835,7 +20685,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.72007056608678</v>
+        <v>1.736439397282446</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.876865603446414</v>
@@ -20924,7 +20774,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.73843606680707</v>
+        <v>1.754834592046659</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.252933428661878</v>
@@ -21013,7 +20863,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.750262395329236</v>
+        <v>1.767835722144872</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.721852621971397</v>
@@ -21102,7 +20952,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.760265344611499</v>
+        <v>1.776806486553385</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.164429950058758</v>
@@ -21191,7 +21041,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.764218981743269</v>
+        <v>1.785109993803303</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.202069401239516</v>
@@ -21280,7 +21130,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.760690075925304</v>
+        <v>1.78444422298928</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.025924755609958</v>
@@ -21369,7 +21219,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.77485206704685</v>
+        <v>1.796139361675104</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.75493357794683</v>
@@ -21458,7 +21308,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.764158825488777</v>
+        <v>1.784654364645181</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.156716455393024</v>
@@ -21547,7 +21397,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.749942544484637</v>
+        <v>1.763099824626369</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.987935514138613</v>
@@ -21636,7 +21486,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.742757407425063</v>
+        <v>1.751926895626702</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.114102863177488</v>
@@ -21725,7 +21575,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.760964848489631</v>
+        <v>1.765825050086103</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.899103787421935</v>
@@ -21814,7 +21664,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.760333685971332</v>
+        <v>1.765547802799853</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.853348419275379</v>
@@ -21903,7 +21753,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.747288583595035</v>
+        <v>1.755826251366239</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.84327244775309</v>
@@ -21992,7 +21842,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.735280331019717</v>
+        <v>1.735520873020135</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.950881753254978</v>
@@ -22081,7 +21931,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.732402523043497</v>
+        <v>1.738418015865985</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.571776598171238</v>
@@ -22170,7 +22020,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.743118679733449</v>
+        <v>1.74277493691669</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.088560425741036</v>
@@ -22259,7 +22109,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.73451983286428</v>
+        <v>1.732242260381328</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.953975155860797</v>
@@ -22348,7 +22198,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.73521715254189</v>
+        <v>1.732635245866116</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.83096674108323</v>
@@ -22437,7 +22287,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.733908065294749</v>
+        <v>1.731492033068903</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.883892847547206</v>
@@ -22526,7 +22376,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.737064058139113</v>
+        <v>1.729130495695113</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.119698877847487</v>
@@ -22615,7 +22465,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.735027702540571</v>
+        <v>1.720831213665218</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.786445187857466</v>
@@ -22704,7 +22554,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.739883533563386</v>
+        <v>1.723568832639206</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.948064172231971</v>
@@ -22793,7 +22643,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737985550292496</v>
+        <v>1.720008452621844</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.737440138761829</v>
@@ -22882,7 +22732,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.758753749920714</v>
+        <v>1.741695935107274</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.38487879149072</v>
@@ -22971,7 +22821,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.768807180983349</v>
+        <v>1.756934038727745</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.185763611617836</v>
@@ -23060,7 +22910,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.776084222534628</v>
+        <v>1.765584242822132</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.42875174485499</v>
@@ -23149,7 +22999,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.758101612938895</v>
+        <v>1.752649722317178</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.300764785548099</v>
@@ -23238,7 +23088,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.732508061793775</v>
+        <v>1.734885196457707</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.895083383972274</v>
@@ -23327,7 +23177,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.743381857132494</v>
+        <v>1.748422622103797</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.857028286385776</v>
@@ -23416,7 +23266,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.757351134944056</v>
+        <v>1.758725653931526</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.06238374592329</v>
@@ -23505,7 +23355,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.74580500363166</v>
+        <v>1.756302433480815</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.274116383272734</v>
@@ -23594,7 +23444,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.740532118795154</v>
+        <v>1.754372865921706</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.05678942044762</v>
@@ -23683,7 +23533,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.733122749045195</v>
+        <v>1.740616766607769</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.91527523143758</v>
@@ -23772,7 +23622,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.749127192285085</v>
+        <v>1.753641056298171</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.074278989780838</v>
@@ -23861,7 +23711,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.75133069757707</v>
+        <v>1.756771041702896</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.197936841035585</v>
@@ -23950,7 +23800,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.744788561273314</v>
+        <v>1.757274241354636</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.242329983140013</v>
@@ -24039,7 +23889,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.737208061359424</v>
+        <v>1.747617457844864</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.18839394006264</v>
@@ -24128,7 +23978,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.736943648854928</v>
+        <v>1.755591871701099</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.177228441513767</v>
@@ -24217,7 +24067,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.727356435489991</v>
+        <v>1.746877483982183</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.186003202499381</v>
@@ -24306,7 +24156,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.721483875991696</v>
+        <v>1.741462645626008</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.334678783054978</v>
@@ -24395,7 +24245,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.731552244741478</v>
+        <v>1.746237378347168</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.20207151391143</v>
@@ -24484,7 +24334,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.720352557266497</v>
+        <v>1.729817995741674</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.587012621827288</v>
@@ -24573,7 +24423,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732705483880968</v>
+        <v>1.745938754954961</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.994697151592834</v>
@@ -24662,7 +24512,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.731732550972307</v>
+        <v>1.746879066455005</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.250926379109703</v>
@@ -24751,7 +24601,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.721142845117775</v>
+        <v>1.73553131806404</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.123166109108898</v>
@@ -24840,7 +24690,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.701082546367076</v>
+        <v>1.719092239338657</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.222808736158618</v>
@@ -24929,7 +24779,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.713029932412417</v>
+        <v>1.724755342329781</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.194914990646232</v>
@@ -25018,7 +24868,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.721930051528301</v>
+        <v>1.737362035007444</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.15927190381201</v>
@@ -25107,7 +24957,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.717981306002945</v>
+        <v>1.732617394268175</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.14147730309007</v>
@@ -25196,7 +25046,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.69114427900367</v>
+        <v>1.712945965668315</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.348119324332309</v>
@@ -25285,7 +25135,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.700163370735379</v>
+        <v>1.721670687166405</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.335304822550949</v>
@@ -25374,7 +25224,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.713006940784847</v>
+        <v>1.732374083613257</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.928016698151492</v>
@@ -25463,7 +25313,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.700583696408659</v>
+        <v>1.716977600386956</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.339785695295848</v>
@@ -25552,7 +25402,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.704140285777616</v>
+        <v>1.718505790996509</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.131049957138105</v>
@@ -25641,7 +25491,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.712452781295007</v>
+        <v>1.722569493273933</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.979104844219158</v>
@@ -25730,7 +25580,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.703074833800307</v>
+        <v>1.714613966144925</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.900471144087778</v>
@@ -25819,7 +25669,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.721946404884261</v>
+        <v>1.731570410660056</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.868119002444824</v>
@@ -25908,7 +25758,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.728286710902453</v>
+        <v>1.734610180691474</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.850815871471744</v>
@@ -25997,7 +25847,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.730106591018618</v>
+        <v>1.736626611991873</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.97555699841028</v>
@@ -26086,7 +25936,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.744117932955464</v>
+        <v>1.744726844634893</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.024014770148131</v>
@@ -26175,7 +26025,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.74683626374309</v>
+        <v>1.74672204631874</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.232998815788159</v>
@@ -26264,7 +26114,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.739792674087027</v>
+        <v>1.745207310059613</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.102744548086754</v>
@@ -26353,7 +26203,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.711957204239806</v>
+        <v>1.713382461869177</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.208603314930555</v>
@@ -26442,7 +26292,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.697830668554819</v>
+        <v>1.703172744325756</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.030058497041708</v>
@@ -26728,7 +26578,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.802199159120477</v>
+        <v>1.77873101234713</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.34150368506491</v>
@@ -26817,7 +26667,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.806329852372699</v>
+        <v>1.785820694759727</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.635118152469451</v>
@@ -26906,7 +26756,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.833606094436938</v>
+        <v>1.813970264332166</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.594003951004335</v>
@@ -26995,7 +26845,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.837165822985531</v>
+        <v>1.811249827118788</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.801602692194232</v>
@@ -27084,7 +26934,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.834138190084711</v>
+        <v>1.812427338928364</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.020490685561199</v>
@@ -27173,7 +27023,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.838630452730609</v>
+        <v>1.822355537822999</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.903076295168299</v>
@@ -27262,7 +27112,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.848030636228017</v>
+        <v>1.834882596690484</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.789556981501226</v>
@@ -27351,7 +27201,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.838108044663461</v>
+        <v>1.830217900620094</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.962943019108498</v>
@@ -27440,7 +27290,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.859164259502115</v>
+        <v>1.84476415331472</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.9312399126105</v>
@@ -27529,7 +27379,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.857777203626251</v>
+        <v>1.843703897643066</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.766494707922086</v>
@@ -27618,7 +27468,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.865080258889914</v>
+        <v>1.848348195997011</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.248291176284263</v>
@@ -27707,7 +27557,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.865653862291482</v>
+        <v>1.848839543745769</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.593864315014175</v>
@@ -27796,7 +27646,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.851739331480391</v>
+        <v>1.836589930595452</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.209382184763943</v>
@@ -27885,7 +27735,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.852075303032372</v>
+        <v>1.833221906022787</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.927513665568715</v>
@@ -27974,7 +27824,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.858386321574155</v>
+        <v>1.837270613372933</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.84636100278255</v>
@@ -28063,7 +27913,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.857311660498873</v>
+        <v>1.838577899422033</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.948451329153797</v>
@@ -28152,7 +28002,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.855476999450943</v>
+        <v>1.832018008575621</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.016193668230549</v>
@@ -28241,7 +28091,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.855979709544982</v>
+        <v>1.826541160292363</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.370494570841409</v>
@@ -28330,7 +28180,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.855330677911629</v>
+        <v>1.832242116435319</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.298166878973738</v>
@@ -28419,7 +28269,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.854380144609232</v>
+        <v>1.825881071962586</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.048529507915321</v>
@@ -28508,7 +28358,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.856839458228213</v>
+        <v>1.821973828027272</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.93862361423521</v>
@@ -28597,7 +28447,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.85529847633752</v>
+        <v>1.818886888679899</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.88647344257614</v>
@@ -28686,7 +28536,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.862120258727799</v>
+        <v>1.821931908757822</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.096429636000891</v>
@@ -28775,7 +28625,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.856199571066685</v>
+        <v>1.816977692699689</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.038703293913189</v>
@@ -28864,7 +28714,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.847548470560717</v>
+        <v>1.808968731128147</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.99600036009389</v>
@@ -28953,7 +28803,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.847221390274078</v>
+        <v>1.806518670723135</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.12567250801694</v>
@@ -29042,7 +28892,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.844405026418994</v>
+        <v>1.802291336335878</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.038156207151331</v>
@@ -29131,7 +28981,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.865767318735814</v>
+        <v>1.819304031524278</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.413373619269367</v>
@@ -29220,7 +29070,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.872285104315977</v>
+        <v>1.826326679722967</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.090452914548038</v>
@@ -29309,7 +29159,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.871835822592925</v>
+        <v>1.82577498162259</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.109781648640912</v>
@@ -29398,7 +29248,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.872738538669564</v>
+        <v>1.825332659710545</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.364931825978728</v>
@@ -29487,7 +29337,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.86301759875799</v>
+        <v>1.821846914413183</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.736682936586903</v>
@@ -29576,7 +29426,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.857423347087889</v>
+        <v>1.827306887275216</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.751088807063207</v>
@@ -29665,7 +29515,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.859310545519796</v>
+        <v>1.827734354743163</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.707348596973848</v>
@@ -29754,7 +29604,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.862123772857258</v>
+        <v>1.832466361047192</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.932535744709301</v>
@@ -29843,7 +29693,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.863920726145701</v>
+        <v>1.834123551498363</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.488636829049911</v>
@@ -29932,7 +29782,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.868232113100935</v>
+        <v>1.843107880174306</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.160808648925922</v>
@@ -30021,7 +29871,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.859277789471844</v>
+        <v>1.833710504623427</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.782156955472921</v>
@@ -30110,7 +29960,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.859788691762575</v>
+        <v>1.835975984197423</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.835130303820869</v>
@@ -30199,7 +30049,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.868068334870545</v>
+        <v>1.84594236547574</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.886351247279307</v>
@@ -30288,7 +30138,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.862549304293357</v>
+        <v>1.844527099185435</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.641581138211641</v>
@@ -30377,7 +30227,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.850033332367818</v>
+        <v>1.837928066189281</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.863954704507877</v>
@@ -30466,7 +30316,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.817551253907457</v>
+        <v>1.816090332237686</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.030767861225081</v>
@@ -30555,7 +30405,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.812076568533902</v>
+        <v>1.811717078600365</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.004425579546631</v>
@@ -30644,7 +30494,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.808227104022039</v>
+        <v>1.808531704742748</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.978220033678414</v>
@@ -30733,7 +30583,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.806447387439367</v>
+        <v>1.806244596620354</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.784489516192833</v>
@@ -30822,7 +30672,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.811257546719195</v>
+        <v>1.812156374254474</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.025162847056998</v>
@@ -30911,7 +30761,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.804878208374035</v>
+        <v>1.801729168904038</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.747849428403785</v>
@@ -31000,7 +30850,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.802908846057579</v>
+        <v>1.800798092383555</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.857778668035244</v>
@@ -31089,7 +30939,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.793876220675048</v>
+        <v>1.794239581855597</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.748259403022112</v>
@@ -31178,7 +31028,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.791913355638548</v>
+        <v>1.792167803541761</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.802024213754719</v>
@@ -31267,7 +31117,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.78814219297462</v>
+        <v>1.781397355113594</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.980117694202495</v>
@@ -31356,7 +31206,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.78626769028985</v>
+        <v>1.779925197395412</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.802509523623627</v>
@@ -31445,7 +31295,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.785711831522205</v>
+        <v>1.780648951132712</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.936482274418974</v>
@@ -31534,7 +31384,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.79213973516903</v>
+        <v>1.786991070202669</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.870676311038356</v>
@@ -31623,7 +31473,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.795124961914304</v>
+        <v>1.788674199241479</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.751270276336148</v>
@@ -31712,7 +31562,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.82590768219271</v>
+        <v>1.805604925907328</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.9358104115484</v>
@@ -31801,7 +31651,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.821594000019687</v>
+        <v>1.802089224569557</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.023826021447908</v>
@@ -31890,7 +31740,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.794332799244231</v>
+        <v>1.782308732459179</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.147270570392716</v>
@@ -31979,7 +31829,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.804961222450921</v>
+        <v>1.789102329782148</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.256598252856143</v>
@@ -32068,7 +31918,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.804220403264548</v>
+        <v>1.788201181769222</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.021337415331373</v>
@@ -32157,7 +32007,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.794878073871407</v>
+        <v>1.7811142508872</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.153726029709037</v>
@@ -32246,7 +32096,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.805271573224826</v>
+        <v>1.791861560458277</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.05720223068149</v>
@@ -32335,7 +32185,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.809895086746006</v>
+        <v>1.794858108023182</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.143415323471782</v>
@@ -32424,7 +32274,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.815037788673462</v>
+        <v>1.800295721602896</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.251866245804877</v>
@@ -32513,7 +32363,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.812077704850481</v>
+        <v>1.803345335444998</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.231588676301825</v>
@@ -32602,7 +32452,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.810434692112772</v>
+        <v>1.797732273409972</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.083543625857079</v>
@@ -32691,7 +32541,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.823390318357642</v>
+        <v>1.806170759081168</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.208404384016891</v>
@@ -32977,7 +32827,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.662657385577961</v>
+        <v>1.669838749553826</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.062408030514383</v>
@@ -33066,7 +32916,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.675917282777546</v>
+        <v>1.679048094192479</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.734481001064935</v>
@@ -33155,7 +33005,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.682834087368477</v>
+        <v>1.683167635574583</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.918496410678285</v>
@@ -33244,7 +33094,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.672671549566529</v>
+        <v>1.66787202269188</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.912395763234804</v>
@@ -33333,7 +33183,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.667333964552808</v>
+        <v>1.669525088287069</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.693644955106037</v>
@@ -33422,7 +33272,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.669709032657928</v>
+        <v>1.679771771000092</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.885107385502547</v>
@@ -33511,7 +33361,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.673136142823956</v>
+        <v>1.685909960312912</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.819608298783936</v>
@@ -33600,7 +33450,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.678102418967664</v>
+        <v>1.690815321930872</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.855939418912374</v>
@@ -33689,7 +33539,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.681820983911449</v>
+        <v>1.697287044160398</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.860913714793259</v>
@@ -33778,7 +33628,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.686298792415327</v>
+        <v>1.701138393257607</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.800120372443483</v>
@@ -33867,7 +33717,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.702536835570593</v>
+        <v>1.71912616163872</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.694807458171122</v>
@@ -33956,7 +33806,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.703770490157301</v>
+        <v>1.722646115066861</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.873078250149825</v>
@@ -34045,7 +33895,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.691220463115386</v>
+        <v>1.70361411503426</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.76683038177924</v>
@@ -34134,7 +33984,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.684387152394992</v>
+        <v>1.700264257358501</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.990622665896932</v>
@@ -34223,7 +34073,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.678105621157475</v>
+        <v>1.685743824920394</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.404838062626717</v>
@@ -34312,7 +34162,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641084610664971</v>
+        <v>1.65041396928212</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.878391145644472</v>
@@ -34401,7 +34251,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.639314400720563</v>
+        <v>1.648266361323326</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.769313795704518</v>
@@ -34490,7 +34340,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.628725166846665</v>
+        <v>1.633527219968298</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.032098749581988</v>
@@ -34579,7 +34429,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.643919864419735</v>
+        <v>1.65165907448487</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.074521384494842</v>
@@ -34668,7 +34518,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.645695499033697</v>
+        <v>1.653239524298405</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.94690299930803</v>
@@ -34757,7 +34607,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.649958625796007</v>
+        <v>1.655987254661428</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.914247541457311</v>
@@ -34846,7 +34696,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.653183014749412</v>
+        <v>1.657205974196472</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.128430524925429</v>
@@ -34935,7 +34785,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.645257869426316</v>
+        <v>1.652713927894938</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.767806209015641</v>
@@ -35024,7 +34874,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.648321632707869</v>
+        <v>1.652843492739907</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.152754122172807</v>
@@ -35113,7 +34963,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.644272096266208</v>
+        <v>1.646794206318624</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.921243360579538</v>
@@ -35202,7 +35052,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.646166787393127</v>
+        <v>1.644576582815136</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.070883874503326</v>
@@ -35291,7 +35141,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.641834726117279</v>
+        <v>1.640349348052082</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.994568236814361</v>
@@ -35380,7 +35230,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65467695407298</v>
+        <v>1.65587227118417</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.179663701575546</v>
@@ -35469,7 +35319,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.667828350398669</v>
+        <v>1.664847502420574</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.04500678438415</v>
@@ -35558,7 +35408,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.69246150461022</v>
+        <v>1.694453462392045</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.155860715469269</v>
@@ -35647,7 +35497,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.706456886996966</v>
+        <v>1.703453526173912</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.12149316651853</v>
@@ -35736,7 +35586,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.688921473726843</v>
+        <v>1.687247321944999</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.513434122943085</v>
@@ -35825,7 +35675,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.670578917508662</v>
+        <v>1.668824061215109</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.669253758207316</v>
@@ -35914,7 +35764,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.670051303078649</v>
+        <v>1.670387249935181</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.808742919830398</v>
@@ -36003,7 +35853,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.669537469231255</v>
+        <v>1.667989726215405</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.672963372089044</v>
@@ -36092,7 +35942,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660929379996598</v>
+        <v>1.658302847831687</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.64196938185072</v>
@@ -36181,7 +36031,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.66018427324419</v>
+        <v>1.658827489365044</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.557513921467371</v>
@@ -36270,7 +36120,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.672174306404776</v>
+        <v>1.663926300989345</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.713797777151234</v>
@@ -36359,7 +36209,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.673741471275227</v>
+        <v>1.665835548962318</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.516281507364893</v>
@@ -36448,7 +36298,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.677390711166034</v>
+        <v>1.666072477332325</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.737490833398665</v>
@@ -36537,7 +36387,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.671403270288218</v>
+        <v>1.656781528138659</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.764925375806054</v>
@@ -36626,7 +36476,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.660307652857654</v>
+        <v>1.646044639492892</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.815096965415161</v>
@@ -36715,7 +36565,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.654318012282614</v>
+        <v>1.638293638630103</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.61163280313433</v>
@@ -36804,7 +36654,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.655690817462731</v>
+        <v>1.640514043798221</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.579491079443078</v>
@@ -36893,7 +36743,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.647242201039803</v>
+        <v>1.630660976180299</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.66833001291103</v>
@@ -36982,7 +36832,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.659772244720208</v>
+        <v>1.640176707566749</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.563155216330844</v>
@@ -37071,7 +36921,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.671387186959772</v>
+        <v>1.647311571891789</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.79087988611539</v>
@@ -37160,7 +37010,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.689322003747217</v>
+        <v>1.668982903794501</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.280467021662315</v>
@@ -37249,7 +37099,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.687858668883384</v>
+        <v>1.665790360200156</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.153588227314694</v>
@@ -37338,7 +37188,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.672244676423812</v>
+        <v>1.645609433302759</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.362750778263665</v>
@@ -37427,7 +37277,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.674436780148481</v>
+        <v>1.645630925830533</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.943956597416152</v>
@@ -37516,7 +37366,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.654681655900853</v>
+        <v>1.628057585983252</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.023957938637321</v>
@@ -37605,7 +37455,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.653764793676762</v>
+        <v>1.62801150794671</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.15938516825639</v>
@@ -37694,7 +37544,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.64993471535706</v>
+        <v>1.623452274497303</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.973030022482511</v>
@@ -37783,7 +37633,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.644438980985315</v>
+        <v>1.618977717554382</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.006486363118778</v>
@@ -37872,7 +37722,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.661647698217458</v>
+        <v>1.634418883239776</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.705769907505001</v>
@@ -37961,7 +37811,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.666687456173378</v>
+        <v>1.64147842013809</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.506736522979871</v>
@@ -38050,7 +37900,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.672070953320179</v>
+        <v>1.643708301448808</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.575590852384708</v>
@@ -38139,7 +37989,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.66014713918785</v>
+        <v>1.628288860303108</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.014739994023319</v>
@@ -38228,7 +38078,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.659319416627797</v>
+        <v>1.626331527564653</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.51635967207355</v>
@@ -38317,7 +38167,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.667785923621021</v>
+        <v>1.629866945817539</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.643500714431686</v>
@@ -38406,7 +38256,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.655501406955415</v>
+        <v>1.62203386618564</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.455908665788577</v>
@@ -38495,7 +38345,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.650275351061743</v>
+        <v>1.619105980905283</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.228403004669557</v>
@@ -38584,7 +38434,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.647408989331824</v>
+        <v>1.617021132615949</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.479186313391206</v>
@@ -38673,7 +38523,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.654579712371069</v>
+        <v>1.625982332455077</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.902884033194787</v>
@@ -38762,7 +38612,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.662751780778144</v>
+        <v>1.637369872148301</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.086722878991785</v>
@@ -38851,7 +38701,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.655220767557376</v>
+        <v>1.633664418025655</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.0237339608663</v>
@@ -38940,7 +38790,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.650868773687175</v>
+        <v>1.63251895341691</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.757656795554693</v>
@@ -39226,7 +39076,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.735508424211299</v>
+        <v>1.757926529261119</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.722775006874937</v>
@@ -39315,7 +39165,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.742312976312291</v>
+        <v>1.76448658444767</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.873558937154054</v>
@@ -39404,7 +39254,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.793186570639169</v>
+        <v>1.810704783490398</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.150503493156765</v>
@@ -39493,7 +39343,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.822109261221897</v>
+        <v>1.831219759638788</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.928691556842651</v>
@@ -39582,7 +39432,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.825818709501293</v>
+        <v>1.839380925059115</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.932431371592494</v>
@@ -39671,7 +39521,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.826333368298334</v>
+        <v>1.840474354519679</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.854168790765995</v>
@@ -39760,7 +39610,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.835649384430513</v>
+        <v>1.855478618148578</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.887001890507162</v>
@@ -39849,7 +39699,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.860436260110627</v>
+        <v>1.884400504457423</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.843690281290101</v>
@@ -39938,7 +39788,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.858588535838584</v>
+        <v>1.88530405042989</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.069653499199909</v>
@@ -40027,7 +39877,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.858409505476629</v>
+        <v>1.887453384005906</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.126028877774158</v>
@@ -40116,7 +39966,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.872240136509813</v>
+        <v>1.896988901158336</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.061990563872568</v>
@@ -40205,7 +40055,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.870950443382618</v>
+        <v>1.892056454772027</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.02219154335346</v>
@@ -40294,7 +40144,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.85248161942216</v>
+        <v>1.871882467002288</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.03005925705052</v>
@@ -40383,7 +40233,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.85041837400048</v>
+        <v>1.87093928370054</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.024373341629938</v>
@@ -40472,7 +40322,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.873725207129769</v>
+        <v>1.892137264780053</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.034287274696811</v>
@@ -40561,7 +40411,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.873489486113688</v>
+        <v>1.888967179471302</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.951560630632568</v>
@@ -40650,7 +40500,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.877643800115279</v>
+        <v>1.891458473251742</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.124616332761163</v>
@@ -40739,7 +40589,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.870686325385605</v>
+        <v>1.881576952268315</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.048839006040175</v>
@@ -40828,7 +40678,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.886844967527856</v>
+        <v>1.898201028329336</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.759908217525293</v>
@@ -40917,7 +40767,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.879273918889254</v>
+        <v>1.886089095278624</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.97339988900672</v>
@@ -41006,7 +40856,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.880999161714925</v>
+        <v>1.887676245409791</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.070122427095364</v>
@@ -41095,7 +40945,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.877933757209107</v>
+        <v>1.879969384170703</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.964217122945807</v>
@@ -41184,7 +41034,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.880013567222291</v>
+        <v>1.882910265268236</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.915425481123417</v>
@@ -41273,7 +41123,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.877337188539757</v>
+        <v>1.876169709409639</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.824482886317722</v>
@@ -41362,7 +41212,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.875776059127332</v>
+        <v>1.871090028098461</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.088402774205035</v>
@@ -41451,7 +41301,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.883672224120832</v>
+        <v>1.879189178223576</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.842404463375829</v>
@@ -41540,7 +41390,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.879609557705986</v>
+        <v>1.872763619173499</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.040482288910118</v>
@@ -41629,7 +41479,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.899276935303022</v>
+        <v>1.891382180238488</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.834211760601375</v>
@@ -41718,7 +41568,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.903466120966978</v>
+        <v>1.897811930387305</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.206821009652688</v>
@@ -41807,7 +41657,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.914702577917494</v>
+        <v>1.911132135143719</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.626480918202168</v>
@@ -41896,7 +41746,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.909697833116101</v>
+        <v>1.906215722837175</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.058077511177757</v>
@@ -41985,7 +41835,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.88787941020535</v>
+        <v>1.883838962632694</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.316090578948469</v>
@@ -42074,7 +41924,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.887100567541163</v>
+        <v>1.885967299178749</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.559473110476477</v>
@@ -42163,7 +42013,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.889260685819555</v>
+        <v>1.88949052056218</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.438470048530813</v>
@@ -42252,7 +42102,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.88961877926998</v>
+        <v>1.890800709002202</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.464229028237095</v>
@@ -42341,7 +42191,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.888684553316477</v>
+        <v>1.889425072904013</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.459304431579889</v>
@@ -42430,7 +42280,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.88557675271518</v>
+        <v>1.890301025250361</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.267361321856167</v>
@@ -42519,7 +42369,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.882892293047326</v>
+        <v>1.8810652255339</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.128117168263165</v>
@@ -42608,7 +42458,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.88746224523884</v>
+        <v>1.892139702183773</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.349452404450362</v>
@@ -42697,7 +42547,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.892140594043925</v>
+        <v>1.90045300436072</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.9809267567704</v>
@@ -42786,7 +42636,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.87006664773566</v>
+        <v>1.877469265243836</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.378220056312604</v>
@@ -42875,7 +42725,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.864657998294237</v>
+        <v>1.880589266225716</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.319816089084105</v>
@@ -42964,7 +42814,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.872919845006998</v>
+        <v>1.886093627579257</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.45915841760749</v>
@@ -43053,7 +42903,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.869322263588917</v>
+        <v>1.882831414868392</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.427699140106081</v>
@@ -43142,7 +42992,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.868047114647353</v>
+        <v>1.876996139967204</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.074908019971127</v>
@@ -43231,7 +43081,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.870213087417628</v>
+        <v>1.881207354432248</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.434798524391937</v>
@@ -43320,7 +43170,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.890192939956157</v>
+        <v>1.900444428933753</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.760750598738535</v>
@@ -43409,7 +43259,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.891265964915905</v>
+        <v>1.899366511999373</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.569229044957847</v>
@@ -43498,7 +43348,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.879737232638551</v>
+        <v>1.886339720225657</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.277336778895175</v>
@@ -43587,7 +43437,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.874094680607135</v>
+        <v>1.880979719111695</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.684270414723334</v>
@@ -43676,7 +43526,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.877855520001462</v>
+        <v>1.879187723937674</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.602330228717748</v>
@@ -43765,7 +43615,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.875679831151689</v>
+        <v>1.877664226798065</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.828843312444321</v>
@@ -43854,7 +43704,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.867441638348534</v>
+        <v>1.868856052359161</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.298489575767205</v>
@@ -43943,7 +43793,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.86627986427111</v>
+        <v>1.869869943009491</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.384568672542372</v>
@@ -44032,7 +43882,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.869478154948528</v>
+        <v>1.871535161810516</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.376052273579561</v>
@@ -44121,7 +43971,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.898316318043642</v>
+        <v>1.897601214206689</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.986340932442408</v>
@@ -44210,7 +44060,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.895032743394475</v>
+        <v>1.896635517789411</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.851257731211459</v>
@@ -44299,7 +44149,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.892981927547975</v>
+        <v>1.892512204585286</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.963245810273148</v>
@@ -44388,7 +44238,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.891061472247591</v>
+        <v>1.885585826185891</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.666134646923501</v>
@@ -44477,7 +44327,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.89672341367365</v>
+        <v>1.885573606964592</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.977040983701803</v>
@@ -44566,7 +44416,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.893226977441417</v>
+        <v>1.879403041257319</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.330354500586016</v>
@@ -44655,7 +44505,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.887866702403216</v>
+        <v>1.876058443710637</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.776187731881839</v>
@@ -44744,7 +44594,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.890372554357643</v>
+        <v>1.876944499694083</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.992429399003156</v>
@@ -44833,7 +44683,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.873796570758365</v>
+        <v>1.86771817881162</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.632718621780391</v>
@@ -44922,7 +44772,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.879291604302417</v>
+        <v>1.878128058429181</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.543644561778644</v>
@@ -45011,7 +44861,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.88260079929724</v>
+        <v>1.880526503690287</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.729145147632525</v>
@@ -45100,7 +44950,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.86952809220333</v>
+        <v>1.861367785421054</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.495137035289319</v>
@@ -45189,7 +45039,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.877685844496034</v>
+        <v>1.867569228607377</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.628404261258286</v>
